--- a/Documentation/burndown.xlsx
+++ b/Documentation/burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SDJ_Course\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -255,28 +255,28 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,7 +435,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,11 +1526,11 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <f>SUM(C2:J2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,35 +1543,35 @@
       </c>
       <c r="C4">
         <f>B4-C2</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:I4" si="0">C4-D2</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <f>I4-J2</f>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documentation/burndown.xlsx
+++ b/Documentation/burndown.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SDJ_Course\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\SDJ_Course\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -76,7 +76,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -94,7 +94,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="sk-SK"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -168,7 +168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -219,28 +219,28 @@
                   <c:v>Start hours</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20-04-17</c:v>
+                  <c:v>2017-04-20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22-04-17</c:v>
+                  <c:v>2017-04-22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24-04-17</c:v>
+                  <c:v>2017-04-24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26-04-17</c:v>
+                  <c:v>2017-04-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28-04-17</c:v>
+                  <c:v>2017-04-28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>01-05-17</c:v>
+                  <c:v>2017-05-01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>03-05-17</c:v>
+                  <c:v>2017-05-03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05-05-17</c:v>
+                  <c:v>2017-05-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -255,28 +255,28 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -329,28 +329,28 @@
                   <c:v>Start hours</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20-04-17</c:v>
+                  <c:v>2017-04-20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22-04-17</c:v>
+                  <c:v>2017-04-22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24-04-17</c:v>
+                  <c:v>2017-04-24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26-04-17</c:v>
+                  <c:v>2017-04-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28-04-17</c:v>
+                  <c:v>2017-04-28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>01-05-17</c:v>
+                  <c:v>2017-05-01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>03-05-17</c:v>
+                  <c:v>2017-05-03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05-05-17</c:v>
+                  <c:v>2017-05-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -450,7 +450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376978032"/>
@@ -508,7 +508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376977704"/>
@@ -549,7 +549,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -590,7 +590,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1179,9 +1179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1219,7 +1219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1325,7 +1325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1478,14 +1478,21 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1526,11 +1533,11 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <f>SUM(C2:J2)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,35 +1550,35 @@
       </c>
       <c r="C4">
         <f>B4-C2</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:I4" si="0">C4-D2</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4">
         <f>I4-J2</f>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documentation/burndown.xlsx
+++ b/Documentation/burndown.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\SDJ_Course\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SDJ_Course\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
-    <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
+    <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Backloog" sheetId="2" r:id="rId2"/>
+    <sheet name="20.04" sheetId="5" r:id="rId3"/>
+    <sheet name="22.04" sheetId="4" r:id="rId4"/>
+    <sheet name="24.04" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'22.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'24.04'!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -35,14 +43,143 @@
     <t>Total hours</t>
   </si>
   <si>
-    <t>Start hours</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Estimated time</t>
+  </si>
+  <si>
+    <t>As user I want to connect to server</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As client user I want to see a list of tours in a given date interval </t>
+  </si>
+  <si>
+    <t>Server connection</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>Client GUI</t>
+  </si>
+  <si>
+    <t>Façade design pattern</t>
+  </si>
+  <si>
+    <t>Adapter design pattern</t>
+  </si>
+  <si>
+    <t>Remote observer d.p.</t>
+  </si>
+  <si>
+    <t>MVC design pattern</t>
+  </si>
+  <si>
+    <t>Customer require to test remote observer</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Customer wants remote observer design pattern</t>
+  </si>
+  <si>
+    <t>Customer wants façade design pattern</t>
+  </si>
+  <si>
+    <t>Customer wants MVC design pattern</t>
+  </si>
+  <si>
+    <t>Customer wants proxy design pattern</t>
+  </si>
+  <si>
+    <t>PB-ID</t>
+  </si>
+  <si>
+    <t>Task title</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Client server class diagram</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Implement server connection using sockets</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Test server connection</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Different GUI on client computers</t>
+  </si>
+  <si>
+    <t>Create client GUI</t>
+  </si>
+  <si>
+    <t>Implement façade design pattern</t>
+  </si>
+  <si>
+    <t>Stela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document façade </t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Documentation of Client-Server</t>
+  </si>
+  <si>
+    <t>Krzysztof</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Client-Server class diagram</t>
+  </si>
+  <si>
+    <t>Simple implementation of remote observer</t>
+  </si>
+  <si>
+    <t>Marek, Stela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement proxy design pattern </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,16 +187,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,16 +241,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -94,7 +291,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="sk-SK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -168,7 +365,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -183,7 +380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hárok1!$A$4</c:f>
+              <c:f>'Burndown Chart'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -212,71 +409,71 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hárok1!$B$1:$J$1</c:f>
+              <c:f>'Burndown Chart'!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Start hours</c:v>
+                  <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017-04-20</c:v>
+                  <c:v>20-04-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2017-04-22</c:v>
+                  <c:v>22-04-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2017-04-24</c:v>
+                  <c:v>24-04-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2017-04-26</c:v>
+                  <c:v>26-04-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2017-04-28</c:v>
+                  <c:v>28-04-17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2017-05-01</c:v>
+                  <c:v>01-05-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2017-05-03</c:v>
+                  <c:v>03-05-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017-05-05</c:v>
+                  <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hárok1!$B$4:$J$4</c:f>
+              <c:f>'Burndown Chart'!$B$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,7 +490,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hárok1!$A$5</c:f>
+              <c:f>'Burndown Chart'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,70 +519,70 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hárok1!$B$1:$J$1</c:f>
+              <c:f>'Burndown Chart'!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Start hours</c:v>
+                  <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017-04-20</c:v>
+                  <c:v>20-04-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2017-04-22</c:v>
+                  <c:v>22-04-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2017-04-24</c:v>
+                  <c:v>24-04-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2017-04-26</c:v>
+                  <c:v>26-04-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2017-04-28</c:v>
+                  <c:v>28-04-17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2017-05-01</c:v>
+                  <c:v>01-05-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2017-05-03</c:v>
+                  <c:v>03-05-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017-05-05</c:v>
+                  <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hárok1!$B$5:$J$5</c:f>
+              <c:f>'Burndown Chart'!$B$11:$J$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>49.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>42.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>35.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>21.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                  <c:v>7.125</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -450,7 +647,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376978032"/>
@@ -508,7 +705,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="376977704"/>
@@ -549,7 +746,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -590,7 +787,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1142,15 +1339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>857249</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1179,9 +1376,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1219,7 +1416,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1325,7 +1522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1475,155 +1672,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42845</v>
+      </c>
+      <c r="D1" s="4">
+        <v>42847</v>
+      </c>
+      <c r="E1" s="4">
+        <v>42849</v>
+      </c>
+      <c r="F1" s="4">
+        <v>42851</v>
+      </c>
+      <c r="G1" s="4">
+        <v>42853</v>
+      </c>
+      <c r="H1" s="4">
+        <v>42856</v>
+      </c>
+      <c r="I1" s="4">
+        <v>42858</v>
+      </c>
+      <c r="J1" s="4">
+        <v>42860</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5">
+        <f>SUM(C2:J2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K8" si="0">SUM(C3:J3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5">
+        <f>SUM(C8:J8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5">
+        <f>SUM(B2:B8)</f>
+        <v>57</v>
+      </c>
+      <c r="C10" s="5">
+        <f>B10-(SUM(C2:C8))</f>
+        <v>57</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" ref="D10:J10" si="1">C10-(SUM(D2:D8))</f>
+        <v>55</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <f>SUM(B2:B8)</f>
+        <v>57</v>
+      </c>
+      <c r="C11" s="7">
+        <f>B11-($B$11/8)</f>
+        <v>49.875</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11:I11" si="2">C11-($B$11/8)</f>
+        <v>42.75</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="2"/>
+        <v>35.625</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>21.375</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>14.25</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>7.125</v>
+      </c>
+      <c r="J11" s="5">
+        <f>I11-($B$11/8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="111.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f>'Burndown Chart'!B2</f>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <f>'Burndown Chart'!B3</f>
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <f>'Burndown Chart'!B6</f>
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <f>'Burndown Chart'!B5</f>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>'Burndown Chart'!B4</f>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <f>'Burndown Chart'!B6/4</f>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <f>'Burndown Chart'!B7</f>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <f>'Burndown Chart'!B8</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:D9">
+    <sortCondition ref="B3:B9" customList="Critical,High,Medium,Low"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1">
-        <v>42845</v>
-      </c>
-      <c r="D1" s="1">
-        <v>42847</v>
-      </c>
-      <c r="E1" s="1">
-        <v>42849</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42851</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42853</v>
-      </c>
-      <c r="H1" s="1">
-        <v>42856</v>
-      </c>
-      <c r="I1" s="1">
-        <v>42858</v>
-      </c>
-      <c r="J1" s="1">
-        <v>42860</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <f>SUM(C2:J2)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <f>B2</f>
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <f>B4-C2</f>
-        <v>83</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:I4" si="0">C4-D2</f>
-        <v>83</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="J4">
-        <f>I4-J2</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f>B2</f>
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <f>B5-15</f>
-        <v>85</v>
-      </c>
-      <c r="D5">
-        <f>C5-10</f>
-        <v>75</v>
-      </c>
-      <c r="E5">
-        <f>D5-10</f>
-        <v>65</v>
-      </c>
-      <c r="F5">
-        <f>E5-15</f>
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:H5" si="1">F5-15</f>
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <f>H5-10</f>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="J5">
-        <f>I5-10</f>
-        <v>0</v>
+      <c r="F1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/burndown.xlsx
+++ b/Documentation/burndown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>Implement façade design pattern</t>
   </si>
   <si>
-    <t>Stela</t>
-  </si>
-  <si>
     <t xml:space="preserve">Document façade </t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implement proxy design pattern </t>
+  </si>
+  <si>
+    <t>Andreea</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1762,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K8" si="0">SUM(C3:J3)</f>
+        <f t="shared" ref="K3:K7" si="0">SUM(C3:J3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A10" si="0">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2008,7 +2008,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2024,7 +2024,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2040,7 +2040,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -2056,7 +2056,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2072,7 +2072,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2088,7 +2088,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -2296,7 +2296,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,16 +2357,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,16 +2377,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -2406,7 +2406,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,16 +2417,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
       </c>
       <c r="E6">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,16 +2437,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
